--- a/database/httpswwwinstagramcomitagakinatsuki.xlsx
+++ b/database/httpswwwinstagramcomitagakinatsuki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B18"/>
+  <dimension ref="A1:B35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -649,6 +649,210 @@
         </is>
       </c>
     </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>https://about.facebook.com/meta</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Meta</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>https://about.instagram.com/</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Informacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>https://about.instagram.com/blog/</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Blog</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>https://developers.facebook.com/docs/instagram</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>API</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>https://help.instagram.com/</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Pomoc</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Powróć do Instagramu.</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/about/jobs/</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Praca</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/emailsignup/</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Zarejestruj się</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/login/?next=%2F&amp;amp;source=logged_out_half_sheet</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Zaloguj się</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/accounts/login/?next=%2Fitagaki%20natsuki%2F&amp;amp;source=desktop_nav</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Zaloguj się</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/directory/hashtags/</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Hasztagi</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/directory/profiles/</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Najpopularniejsze konta</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/explore/locations/</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Lokalizacje</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/legal/cookies/</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Zasadach dotyczących plików cookie</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/legal/privacy/</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Prywatność</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/legal/terms/</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Regulamin</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>https://www.instagram.com/web/lite/</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Instagram Lite</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
